--- a/documents/Published/KPI Ticker/kpiTickerByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/KPI Ticker/kpiTickerByMAQSoftwareChecklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MAQUser\Documents\Project\documents\Published\KPI Ticker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-sidku\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE58A303-C21E-43B2-B229-1562067D5529}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB90F09-6285-4D7E-9FAF-F73D73FC4430}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4AB92824-63E9-41E2-A760-A81835BDCF59}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="128">
   <si>
     <t>S no</t>
   </si>
@@ -523,7 +523,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -626,7 +626,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -699,33 +699,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -747,6 +720,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -763,6 +763,4365 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4686300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3619500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48954DF2-E58B-402B-8371-31506ADFFBC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="49207"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="581024"/>
+          <a:ext cx="4467225" cy="3419476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>828676</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3743325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3475189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{389D6F95-E548-4C6F-80A4-21F5AEF7439F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17411701" y="476250"/>
+          <a:ext cx="2914649" cy="3379939"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3524250</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3720077</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74DBD2AC-F082-4F0D-BA16-6A564E4EC443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21574125" y="409575"/>
+          <a:ext cx="2943225" cy="3691502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3168977</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3476625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DA2A51B-BA1C-4926-8E89-6145DB049FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25450800" y="504825"/>
+          <a:ext cx="2635577" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3784310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3009900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E18E90A-A551-4A7C-B4CF-9039F8DE6670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25746076" y="4876800"/>
+          <a:ext cx="3717634" cy="2762250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4448769</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2772115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66D113E9-A943-4590-9869-4B9F247F0BF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13011150" y="4962525"/>
+          <a:ext cx="4258269" cy="2438740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4344006</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2724530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C6F28D4-652D-4D48-990E-2775B44E20C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17345025" y="4629150"/>
+          <a:ext cx="4344006" cy="2724530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3953427</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3134162</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B63A786-8FDD-4181-81A3-05C8DF2B4969}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21755100" y="4629150"/>
+          <a:ext cx="3953427" cy="3134162"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5201341</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3124583</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F47ED36C-AA2A-44EF-9309-75048020D8CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18240375" y="8591550"/>
+          <a:ext cx="4953691" cy="2743583"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>447675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5201369</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2924521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50F9D7DB-266A-4744-B61F-A7BABD497E92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13515975" y="8658225"/>
+          <a:ext cx="5153744" cy="2476846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5134678</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3181771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BC1BFA-675C-46EC-A025-931097A13322}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24450675" y="8372475"/>
+          <a:ext cx="5039428" cy="3019846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5048955</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>3400900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4155D2C4-D7B2-4901-8692-11B3F4F14F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29508450" y="8210550"/>
+          <a:ext cx="5048955" cy="3400900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5210886</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2133895</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C7545C3-5F97-4BDF-BBE8-F148789F0777}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18964275" y="11830050"/>
+          <a:ext cx="5096586" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5106101</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57997A7-AD4F-4D18-A9E6-835B9475892C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13554075" y="11830050"/>
+          <a:ext cx="5020376" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5134681</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2009775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1558B619-8B3D-40F7-901A-E6F6425C9C23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24431625" y="11953875"/>
+          <a:ext cx="5058481" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5163271</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2200275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988F1000-C0EC-4603-8612-551D0731E5F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29508450" y="11811000"/>
+          <a:ext cx="5163271" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6192114</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1667108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B8D27B-5FB2-4E40-A75B-FC5F99E3F607}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468350" y="14030325"/>
+          <a:ext cx="6192114" cy="1667108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6601734</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1686140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8C69F9B-22B4-4053-B8D2-E95D9AA0D580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19878675" y="14173200"/>
+          <a:ext cx="6516009" cy="1543265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>29520</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2219632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24DDDC11-71C1-409B-B48C-88963DF9D2C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33385125" y="14049375"/>
+          <a:ext cx="6773220" cy="2200582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6878009</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2048144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E7886EA-FEB1-45F4-A93F-AE1E7EB56D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26479500" y="14154150"/>
+          <a:ext cx="6868484" cy="1924319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6449321</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1181260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDFBCB5-AF5D-4D69-AA65-57D91736DCCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="16811625"/>
+          <a:ext cx="6420746" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6439799</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1028844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1343D43-40DF-44A8-803D-5C068AB16F40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="16773525"/>
+          <a:ext cx="6439799" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6430272</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1057423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED6640F-F6E4-479F-8420-4F2896A50818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26774775" y="16773525"/>
+          <a:ext cx="6430272" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6506483</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1076475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D64572-4269-4496-A32F-2CA19347B0BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33661350" y="16773525"/>
+          <a:ext cx="6506483" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6230214</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1686159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA861F88-6EA9-42BC-AB13-0F00E1B16C9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506450" y="18097500"/>
+          <a:ext cx="6192114" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6258737</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1324105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{233FCC47-2EF6-4170-A85B-B772F0E8BBAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20535900" y="18478500"/>
+          <a:ext cx="5820587" cy="933580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6829425</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1657350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A4B03E-C2EC-444F-B32C-3F9E4E4BA8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26774776" y="18087975"/>
+          <a:ext cx="6829424" cy="1657350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6392136</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6924B3A9-FAB2-4603-9F76-D9106A2406F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33880425" y="18116550"/>
+          <a:ext cx="6173061" cy="1571625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6400800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1543050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{142CB01C-C3AC-4E52-9732-F371432103B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506450" y="19869150"/>
+          <a:ext cx="6362700" cy="1476375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7715250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1000277</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AF0E2F-413B-4265-912D-F56851C8D44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20126325" y="19822572"/>
+          <a:ext cx="7686675" cy="980180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6800850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1285875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D5365CA-2659-41CF-A0C0-DD3BAFC90C66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27908250" y="19878675"/>
+          <a:ext cx="6753225" cy="1209675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6258788</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1714734</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D57A8EB-872F-4D70-BAED-CA35E0AD222F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34823400" y="19840575"/>
+          <a:ext cx="6182588" cy="1676634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6543675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1962149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A56E5AE-199E-437F-A724-E967E295B5BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468350" y="21593175"/>
+          <a:ext cx="6543675" cy="1962149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7734300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2086266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48230718-8E6A-4D87-B50E-E37F6BFDC92D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="21593175"/>
+          <a:ext cx="7734300" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1781175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6763685</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2076741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D603336-7769-4981-9B7A-C6C4035D846E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27927300" y="21583650"/>
+          <a:ext cx="6697010" cy="2086266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6543675</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1724025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52CF019C-58DD-4BFD-B2DE-268D8A9E4FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34785300" y="21640800"/>
+          <a:ext cx="6505575" cy="1676400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7778D16C-E6FC-4F8A-B12B-0978F63521D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468350" y="23783925"/>
+          <a:ext cx="6648450" cy="2095792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1876687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Picture 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00FE6C30-A826-416C-BE28-FAC02966DE5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="23783925"/>
+          <a:ext cx="7753350" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6867525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1905266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F108E470-D8BA-4900-B3E2-B2B8062DB52A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27860625" y="23783925"/>
+          <a:ext cx="6867525" cy="1905266"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6715125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1876687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EFFAC74-B37C-4195-9C5D-720E08D14C6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34747200" y="23783925"/>
+          <a:ext cx="6715125" cy="1876687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>69878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6534150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1447800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Picture 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E066B5-068E-43BF-8D4E-CB82A3FF8412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13535026" y="25949303"/>
+          <a:ext cx="6467474" cy="1377922"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7715250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCF6043-91EF-4799-BE25-AF79D63D06C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20097750" y="25879426"/>
+          <a:ext cx="7715250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6743700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1467118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Picture 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B27FED9C-6412-485C-A845-3F0B2E409B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27889200" y="25901968"/>
+          <a:ext cx="6715125" cy="1444575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35742</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6276975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1358872</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A22E8FD1-7308-4BDC-8F0B-6212F8EC367F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34813875" y="25915167"/>
+          <a:ext cx="6210300" cy="1323130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6487406</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1266983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18A00319-BD52-45A8-92BD-9434F5A853C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13639800" y="27498675"/>
+          <a:ext cx="6315956" cy="1133633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7658100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1114569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C6D4AC-B001-4A69-BDE5-B6F7DBBFEEA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20145375" y="27451050"/>
+          <a:ext cx="7610475" cy="1028844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6858000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1276351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F941EBE4-BAF9-4CD2-AEB7-C291D1CBA585}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27860625" y="27365326"/>
+          <a:ext cx="6858000" cy="1276350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6705600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1343025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DA5B873-639B-42F5-ACD7-E40BFA67818C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34747200" y="27365325"/>
+          <a:ext cx="6705600" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6639749</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1162184</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Picture 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE9C7822-69EA-4DCB-A6E5-36F7A7097EB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20831175" y="28917900"/>
+          <a:ext cx="5906324" cy="962159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6563636</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1247985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4874161C-20AF-4404-A177-46E632CE4BAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13506450" y="28822650"/>
+          <a:ext cx="6525536" cy="1143210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6811266</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1190771</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9C60994-615C-477A-A4C1-BC2B337135A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28289250" y="28860750"/>
+          <a:ext cx="6382641" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6696075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1200298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1359F1D5-20FA-49B7-9116-0B5DC8878769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34804350" y="28860750"/>
+          <a:ext cx="6638925" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6982704</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1114567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D38487ED-77D5-4CC4-9813-2DDD075E89A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20783550" y="30165675"/>
+          <a:ext cx="6296904" cy="1019317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6439783</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1143148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4682D9AB-06F4-4C64-A1AC-B8C2C2E37985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582650" y="30156150"/>
+          <a:ext cx="6325483" cy="1057423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6724650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1152670</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD7E7EE-15A4-406F-865C-EF48A6A72949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27927300" y="30184725"/>
+          <a:ext cx="6657975" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6354036</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>237</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402A8B47-9521-471B-9A44-3AEAEE45D745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34928175" y="30118050"/>
+          <a:ext cx="6173061" cy="1314687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6581774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1257300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EB3A51F-9793-437B-92BB-6649B22EF993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13582650" y="31537275"/>
+          <a:ext cx="6467474" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>6944606</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1219368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBBB55FA-AAD6-4725-98E1-27013196F4B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20726400" y="31451550"/>
+          <a:ext cx="6315956" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6762750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1190781</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8CA6617-0D90-4959-92AE-D8391277FCDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28060650" y="31508700"/>
+          <a:ext cx="6562725" cy="1114581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6181725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1304926</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Picture 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B853E4-7B43-4A59-877E-D426247F14F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35185350" y="31499176"/>
+          <a:ext cx="5743575" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7058946</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1381125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BFECE2E-B4BA-4BBD-BACC-11BA4900A775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20554950" y="32899350"/>
+          <a:ext cx="6601746" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6381751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1362282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="Picture 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B78002-FF79-470E-90B9-26B999B1CE44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13830301" y="32813625"/>
+          <a:ext cx="6019800" cy="1305132"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6829425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1371600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0A34903-78BD-4BE9-BCD2-5DF47E2D27A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28127325" y="32861897"/>
+          <a:ext cx="6562725" cy="1266178"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6030125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1114543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DC8998-1497-4DD4-A456-282D5E890750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35252025" y="33023175"/>
+          <a:ext cx="5734850" cy="847843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6515991</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1123951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BB3318-77E9-4CF3-9F33-7C19C44A4BF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:srcRect b="16800"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13601700" y="34251901"/>
+          <a:ext cx="6382641" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7106534</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1085995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="Picture 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64B31C55-FC11-4E75-A9D3-6F4098C2F712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20869275" y="34261425"/>
+          <a:ext cx="6335009" cy="1038370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6962775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1028826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="70" name="Picture 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D93CB263-7FDD-4CD8-954D-FB57AC12627B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28013025" y="34337625"/>
+          <a:ext cx="6810375" cy="905001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6287320</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="Picture 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B33CED-A1E6-4107-B9F5-1EBA92D8CB82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35366325" y="34270950"/>
+          <a:ext cx="5877745" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6515100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1143159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="Picture 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21D5F072-CE33-4264-831C-35F36E151525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13468350" y="35394899"/>
+          <a:ext cx="6515100" cy="1095535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7058904</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1143136</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="73" name="Picture 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D29B368-A023-44BA-A1E0-797CFA865489}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20859750" y="35518725"/>
+          <a:ext cx="6296904" cy="971686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6611223</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1114563</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD04138E-B917-4761-9DAE-9305D35BE233}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId67"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28213050" y="35471100"/>
+          <a:ext cx="6258798" cy="990738"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6667500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1152685</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="Picture 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D122E36-6EEE-4244-BC1C-373751D45614}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35109150" y="35404425"/>
+          <a:ext cx="6515100" cy="1095535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4505786</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3238501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F025192E-CA2E-4038-99BA-74D9CB121ADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14668500" y="38138101"/>
+          <a:ext cx="3305636" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1743075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5077290</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3667125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="77" name="Picture 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09BAAF5C-8A07-4E2F-8C9E-FB9FE2D43CC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId69"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21840825" y="38166675"/>
+          <a:ext cx="3334215" cy="3524250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1771649</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6181725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3424497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C55D59-AFA4-4E79-8875-142C15220F95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29632274" y="38090475"/>
+          <a:ext cx="4410076" cy="3357822"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4791562</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>3629530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="Picture 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{580A64F4-1594-4A75-8A85-ADFBF084A053}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36261675" y="38033325"/>
+          <a:ext cx="3486637" cy="3620005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1905000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5286847</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3734295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35797FF2-DC06-452A-9AA5-584A3F98C9B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId71"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29765625" y="41967150"/>
+          <a:ext cx="3381847" cy="3543795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1724025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5029661</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3600450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Picture 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{602220D3-5D60-4E18-B4C1-0922110CDD2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21821775" y="41871900"/>
+          <a:ext cx="3305636" cy="3505200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4496255</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3715243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A40414A-2BF7-4D0F-9060-4F60C023D892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId73"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14706600" y="41957625"/>
+          <a:ext cx="3258005" cy="3534268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1428749</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3533774</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2371725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="Picture 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FD5F978-2F10-484F-9851-E1CAD50F6A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14897099" y="47120175"/>
+          <a:ext cx="2105025" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4267442</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2410148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02AA4FFF-9E5C-4A0E-B7A3-8221FD92F293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22631400" y="47053500"/>
+          <a:ext cx="1733792" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4029318</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2381250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Picture 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FC8AD82-1C67-43FB-B6A9-6ADA609F4932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30146625" y="46986825"/>
+          <a:ext cx="1743318" cy="2352675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2057400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3791192</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2419673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{360B5D5D-00BF-4124-BE64-54B1938CCDB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId75"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37014150" y="47063025"/>
+          <a:ext cx="1733792" cy="2314898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5010718</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2000524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Picture 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C36788C-149B-43F8-B937-D2C553BBD137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14411325" y="49549050"/>
+          <a:ext cx="4067743" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1562100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5629843</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2019574</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="Picture 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47710F82-C316-4A27-A5CD-99005D7F9D4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21659850" y="49568100"/>
+          <a:ext cx="4067743" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>923926</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4867276</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2038624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="Picture 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEEA729-DECE-4B5C-B3C4-544693F51CBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28784551" y="49587150"/>
+          <a:ext cx="3943350" cy="1962424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4029075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1971675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="Picture 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F318467-3F79-4E87-96C1-2B85F4A4DCB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36880800" y="49549051"/>
+          <a:ext cx="2105025" cy="1933574"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5210650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5105400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="Picture 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AFCC309-364F-40AD-BE5D-720A0CCF8741}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21907500" y="56988074"/>
+          <a:ext cx="3400900" cy="4991101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1352550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4296186</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4982315</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="Picture 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{820C1173-673F-45D4-BB34-2B4904ACCF56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14820900" y="56921400"/>
+          <a:ext cx="2943636" cy="4934690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1609725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4553361</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5020415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="Picture 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDDADE3-10F6-4254-A8E1-0F964CD2F694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29470350" y="56959500"/>
+          <a:ext cx="2943636" cy="4934690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4288801</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3972665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="Picture 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9AC702-9896-4A88-A80A-43E527FCF5B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36995100" y="57073800"/>
+          <a:ext cx="2250451" cy="3772640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>971550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>552450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5420346</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>4067666</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="Picture 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199EA21E-EF01-4434-98E4-948E515D6ED2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14439900" y="52225575"/>
+          <a:ext cx="4448796" cy="3515216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>419100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5753713</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3886684</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="Picture 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4D0E8B-A136-4642-B746-73697562FAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21459825" y="52092225"/>
+          <a:ext cx="4391638" cy="3467584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1143000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5534638</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3972409</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="Picture 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF4141B-2C0A-4DAF-8636-6CAB31CAB266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId82"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29003625" y="52177950"/>
+          <a:ext cx="4391638" cy="3467584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>86215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5695950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3600940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="Picture 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75A887D5-9986-4A55-ACC4-765B4B71D97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36204525" y="51759340"/>
+          <a:ext cx="4448175" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5410870</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3972469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="Picture 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{544EDC14-7994-4857-BCCC-15DB22EA483C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14077950" y="62150625"/>
+          <a:ext cx="4801270" cy="3896269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5991915</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>3734317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="105" name="Picture 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF765A1A-2AE7-49F6-94FF-B2999517FC4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId84"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21145500" y="62103000"/>
+          <a:ext cx="4944165" cy="3705742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>542925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6430195</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1524137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="Picture 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C0F00AC-E100-474B-B153-CA45B3010D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28413075" y="62617350"/>
+          <a:ext cx="5877745" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>704850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>6334945</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1686062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Picture 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E6EFE8-6D3B-432E-8A27-CA376B35AF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35413950" y="62779275"/>
+          <a:ext cx="5877745" cy="981212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1065,7 +5424,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +5707,7 @@
   <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1357,9 +5716,12 @@
     <col min="2" max="2" width="20.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="55.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="2" customWidth="1"/>
-    <col min="7" max="14" width="9.140625" style="2"/>
+    <col min="5" max="5" width="85" style="2" customWidth="1"/>
+    <col min="6" max="6" width="99.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="116.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="106.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="101.5703125" style="2" customWidth="1"/>
+    <col min="10" max="14" width="9.140625" style="2"/>
     <col min="15" max="15" width="8.28515625" style="2" customWidth="1"/>
     <col min="16" max="16" width="7.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="9.28515625" style="2" hidden="1" customWidth="1"/>
@@ -1367,50 +5729,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="32" t="s">
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="16" t="s">
         <v>37</v>
       </c>
@@ -1423,26 +5785,26 @@
       <c r="I2" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
-    <row r="3" spans="1:23" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+    <row r="3" spans="1:23" ht="334.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
         <v>1</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="31" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -1454,36 +5816,28 @@
       <c r="E3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
     </row>
-    <row r="4" spans="1:23" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="40"/>
+    <row r="4" spans="1:23" ht="282" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
@@ -1493,36 +5847,28 @@
       <c r="E4" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
     </row>
-    <row r="5" spans="1:23" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="40"/>
+    <row r="5" spans="1:23" ht="283.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="17" t="s">
         <v>58</v>
       </c>
@@ -1532,38 +5878,32 @@
       <c r="E5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
-      <c r="V5" s="27"/>
-      <c r="W5" s="27"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
     </row>
-    <row r="6" spans="1:23" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39">
+    <row r="6" spans="1:23" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="39" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -1581,30 +5921,28 @@
       <c r="G6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="H6" s="10"/>
       <c r="I6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
     </row>
-    <row r="7" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:23" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="9" t="s">
         <v>64</v>
       </c>
@@ -1626,24 +5964,24 @@
       <c r="I7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
-      <c r="W7" s="27"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
     </row>
-    <row r="8" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="29"/>
+    <row r="8" spans="1:23" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="13" t="s">
         <v>47</v>
       </c>
@@ -1665,24 +6003,24 @@
       <c r="I8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
     </row>
-    <row r="9" spans="1:23" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="29"/>
+    <row r="9" spans="1:23" ht="135" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="13" t="s">
         <v>67</v>
       </c>
@@ -1695,33 +6033,29 @@
       <c r="F9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>44</v>
-      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
       <c r="I9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
     </row>
-    <row r="10" spans="1:23" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="29"/>
+    <row r="10" spans="1:23" ht="141" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="30"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="14" t="s">
         <v>65</v>
       </c>
@@ -1743,22 +6077,22 @@
       <c r="I10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
     </row>
-    <row r="11" spans="1:23" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>3</v>
       </c>
@@ -1786,22 +6120,22 @@
       <c r="I11" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
     </row>
-    <row r="12" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>4</v>
       </c>
@@ -1830,7 +6164,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>5</v>
       </c>
@@ -1859,11 +6193,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>6</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="38" t="s">
         <v>78</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -1888,8 +6222,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
+    <row r="15" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="38"/>
       <c r="C15" s="9" t="s">
         <v>45</v>
       </c>
@@ -1912,8 +6246,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:23" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>80</v>
       </c>
@@ -1936,7 +6270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="22" t="s">
         <v>116</v>
@@ -1960,7 +6294,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>7</v>
       </c>
@@ -1989,7 +6323,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="9" t="s">
         <v>45</v>
       </c>
@@ -2012,7 +6346,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="9" t="s">
         <v>80</v>
       </c>
@@ -2035,11 +6369,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>8</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="29" t="s">
         <v>103</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -2064,9 +6398,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="295.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="38"/>
+      <c r="B22" s="29"/>
       <c r="C22" s="15" t="s">
         <v>105</v>
       </c>
@@ -2089,9 +6423,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="318" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="29"/>
       <c r="C23" s="15" t="s">
         <v>94</v>
       </c>
@@ -2115,7 +6449,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="15" t="s">
         <v>98</v>
       </c>
@@ -2139,7 +6473,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
+      <c r="B25" s="29"/>
       <c r="C25" s="15" t="s">
         <v>97</v>
       </c>
@@ -2162,9 +6496,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="201" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
-      <c r="B26" s="38"/>
+      <c r="B26" s="29"/>
       <c r="C26" s="13" t="s">
         <v>119</v>
       </c>
@@ -2187,11 +6521,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>9</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="29" t="s">
         <v>106</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -2216,8 +6550,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
+    <row r="28" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
       <c r="C28" s="15" t="s">
         <v>110</v>
       </c>
@@ -2240,8 +6574,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
+    <row r="29" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
       <c r="C29" s="15" t="s">
         <v>112</v>
       </c>
@@ -2264,7 +6598,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="333" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
         <v>10</v>
       </c>
@@ -2298,27 +6632,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B21:B26"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="R5:W5"/>
-    <mergeCell ref="J3:Q3"/>
-    <mergeCell ref="J1:Q2"/>
-    <mergeCell ref="J6:Q6"/>
-    <mergeCell ref="R6:W6"/>
-    <mergeCell ref="R1:W2"/>
-    <mergeCell ref="R3:W3"/>
-    <mergeCell ref="R4:W4"/>
-    <mergeCell ref="J4:Q4"/>
-    <mergeCell ref="J5:Q5"/>
     <mergeCell ref="R7:W7"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B6:B10"/>
@@ -2331,8 +6644,30 @@
     <mergeCell ref="J9:Q9"/>
     <mergeCell ref="R9:W9"/>
     <mergeCell ref="J7:Q7"/>
+    <mergeCell ref="R5:W5"/>
+    <mergeCell ref="J3:Q3"/>
+    <mergeCell ref="J1:Q2"/>
+    <mergeCell ref="J6:Q6"/>
+    <mergeCell ref="R6:W6"/>
+    <mergeCell ref="R1:W2"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="R4:W4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="J5:Q5"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B21:B26"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>